--- a/data/Analyse_singlesalt_CaCl2_NaCl.xlsx
+++ b/data/Analyse_singlesalt_CaCl2_NaCl.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\3921\03_Analytisk Lab\06_Dokumentation til opg. u. rap\2021\21_NF-Mini_N5_Stud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos-my.sharepoint.com/personal/102222_grundfos_com/Documents/Desktop/Speciale/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE645D82-A45C-4474-87B8-FDA06F6ACB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DE645D82-A45C-4474-87B8-FDA06F6ACB3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{87F36AB0-B3B0-4749-B420-C65FF965196D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{093E3141-CF3E-45B4-8C0F-3C8F855568EC}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{093E3141-CF3E-45B4-8C0F-3C8F855568EC}"/>
   </bookViews>
   <sheets>
     <sheet name="CaCl2" sheetId="5" r:id="rId1"/>
     <sheet name="NaCl " sheetId="4" r:id="rId2"/>
+    <sheet name="SiO2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="37">
   <si>
     <t>mL/min</t>
   </si>
@@ -216,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -236,6 +237,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,19 +558,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF7FE92-3867-4CAB-B2BD-A8EEF26516A4}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" t="s">
@@ -577,7 +581,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -585,7 +589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -596,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -607,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -618,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -631,17 +635,17 @@
       </c>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -664,7 +668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -684,7 +688,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -704,7 +708,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -724,7 +728,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -744,7 +748,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -764,7 +768,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -784,7 +788,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -804,7 +808,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -824,7 +828,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -844,7 +848,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -864,7 +868,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -884,7 +888,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -904,7 +908,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -924,7 +928,7 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -944,7 +948,7 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -964,7 +968,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -984,7 +988,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1004,7 +1008,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1017,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>30</v>
       </c>
@@ -1021,15 +1025,15 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="7" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1054,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1072,7 +1076,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1098,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1120,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1142,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1160,7 +1164,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1197,27 +1201,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6706E50B-FA11-4700-94B2-D4975D0B0ADF}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" t="s">
@@ -1228,7 +1232,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -1279,17 +1283,17 @@
       </c>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1336,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1356,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1376,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1396,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1416,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +1436,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1452,7 +1456,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1476,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1496,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1516,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1536,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1552,7 +1556,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1572,7 +1576,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1592,7 +1596,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1616,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1636,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1652,18 +1656,18 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1684,7 +1688,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1706,7 +1710,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1732,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1754,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1772,7 +1776,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1794,7 +1798,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1826,80 +1830,395 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E38B7-E411-4F7A-B6C9-E6A07A987D48}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44453</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f>4*60</f>
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="e">
+        <f>_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B9" s="11">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="e">
+        <f t="shared" ref="A10:A21" si="0">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B10" s="11">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="e">
+        <f t="shared" ref="A11:A22" si="1">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B11" s="11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="e">
+        <f t="shared" ref="A12:A23" si="2">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="e">
+        <f t="shared" ref="A13:A24" si="3">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B13" s="11">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="e">
+        <f t="shared" ref="A14:A25" si="4">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B14" s="11">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="e">
+        <f t="shared" ref="A15:A26" si="5">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B15" s="11">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="e">
+        <f t="shared" ref="A16:A27" si="6">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B16" s="11">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="e">
+        <f t="shared" ref="A17:A28" si="7">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B17" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="e">
+        <f t="shared" ref="A18:A29" si="8">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B18" s="11">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="e">
+        <f t="shared" ref="A19:A30" si="9">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B19" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="e">
+        <f t="shared" ref="A20:A31" si="10">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B20" s="11">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="e">
+        <f t="shared" ref="A21:A32" si="11">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B21" s="11">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="e">
+        <f>_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B22" s="11">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="e">
+        <f>_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B23" s="11">
+        <v>10</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="e">
+        <f t="shared" ref="A24" si="12">_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B24" s="11">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="e">
+        <f>_xlfn.CONCAT(#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B25" s="11">
+        <v>10</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="e">
+        <f>_xlfn.CONCAT("B","-",#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="12">
+        <v>8.4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="e">
+        <f t="shared" ref="A30:A34" si="13">_xlfn.CONCAT("B","-",#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="12">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="e">
+        <f t="shared" ref="A31:A35" si="14">_xlfn.CONCAT("B","-",#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="12">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="e">
+        <f t="shared" ref="A32:A35" si="15">_xlfn.CONCAT("B","-",#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="12">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="e">
+        <f t="shared" ref="A33:A35" si="16">_xlfn.CONCAT("B","-",#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="12">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="e">
+        <f t="shared" ref="A34:A35" si="17">_xlfn.CONCAT("B","-",#REF!," ",#REF!," ",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="12">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A27:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="add409d8-c458-45bf-bf5f-710f0ed12ba3">CY54R7KD54KC-91199970-190199</_dlc_DocId>
-    <DLCPolicyLabelLock xmlns="B9FBF822-0A65-4D1F-BC13-C27C7257EFA0" xsi:nil="true"/>
-    <DLCPolicyLabelClientValue xmlns="B9FBF822-0A65-4D1F-BC13-C27C7257EFA0" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="add409d8-c458-45bf-bf5f-710f0ed12ba3">
-      <Url>https://grundfos.sharepoint.com/sites/Pro-017826/_layouts/15/DocIdRedir.aspx?ID=CY54R7KD54KC-91199970-190199</Url>
-      <Description>CY54R7KD54KC-91199970-190199</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013E660C0EEA2F44AA3B088C58E7762CB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edf20894e54ab584b81a773933963fe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="add409d8-c458-45bf-bf5f-710f0ed12ba3" xmlns:ns3="B9FBF822-0A65-4D1F-BC13-C27C7257EFA0" xmlns:ns4="b9fbf822-0a65-4d1f-bc13-c27c7257efa0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da92ca86112c3444e93c270f3e76031f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="add409d8-c458-45bf-bf5f-710f0ed12ba3"/>
@@ -2138,23 +2457,100 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="add409d8-c458-45bf-bf5f-710f0ed12ba3">CY54R7KD54KC-91199970-190199</_dlc_DocId>
+    <DLCPolicyLabelLock xmlns="B9FBF822-0A65-4D1F-BC13-C27C7257EFA0" xsi:nil="true"/>
+    <DLCPolicyLabelClientValue xmlns="B9FBF822-0A65-4D1F-BC13-C27C7257EFA0" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="add409d8-c458-45bf-bf5f-710f0ed12ba3">
+      <Url>https://grundfos.sharepoint.com/sites/Pro-017826/_layouts/15/DocIdRedir.aspx?ID=CY54R7KD54KC-91199970-190199</Url>
+      <Description>CY54R7KD54KC-91199970-190199</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72313D68-E164-426B-BE85-BB568A313707}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA7C8989-02A0-4B18-9D25-20B84253B491}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="add409d8-c458-45bf-bf5f-710f0ed12ba3"/>
+    <ds:schemaRef ds:uri="B9FBF822-0A65-4D1F-BC13-C27C7257EFA0"/>
+    <ds:schemaRef ds:uri="b9fbf822-0a65-4d1f-bc13-c27c7257efa0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1A7F39E-E4A2-4EA9-B252-FEBA5C6FAC54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D58E71-E37D-4DFF-AD57-BF5A1D2A5864}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2172,22 +2568,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1A7F39E-E4A2-4EA9-B252-FEBA5C6FAC54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA7C8989-02A0-4B18-9D25-20B84253B491}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72313D68-E164-426B-BE85-BB568A313707}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="add409d8-c458-45bf-bf5f-710f0ed12ba3"/>
-    <ds:schemaRef ds:uri="B9FBF822-0A65-4D1F-BC13-C27C7257EFA0"/>
-    <ds:schemaRef ds:uri="b9fbf822-0a65-4d1f-bc13-c27c7257efa0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>